--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>0.959123722752</v>
+        <v>1.189168401936</v>
       </c>
       <c r="R2">
-        <v>5.754742336512</v>
+        <v>7.135010411615999</v>
       </c>
       <c r="S2">
-        <v>0.1889260278222247</v>
+        <v>0.3230233816467307</v>
       </c>
       <c r="T2">
-        <v>0.1716649519413146</v>
+        <v>0.3099293428980676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
         <v>0.7629214949119999</v>
@@ -641,10 +641,10 @@
         <v>6.866293454207999</v>
       </c>
       <c r="S3">
-        <v>0.1502785554718125</v>
+        <v>0.2072385045013301</v>
       </c>
       <c r="T3">
-        <v>0.2048227126266092</v>
+        <v>0.298256862378706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>0.8046553730764257</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00450252864</v>
+        <v>0.001466495232</v>
       </c>
       <c r="R4">
-        <v>0.04052275775999999</v>
+        <v>0.013198457088</v>
       </c>
       <c r="S4">
-        <v>0.0008868979370776697</v>
+        <v>0.000398355900003927</v>
       </c>
       <c r="T4">
-        <v>0.001208800821413705</v>
+        <v>0.0005733122863973101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>1.213912522224</v>
+        <v>0.7320153941279999</v>
       </c>
       <c r="R5">
-        <v>7.283475133343999</v>
+        <v>4.392092364768</v>
       </c>
       <c r="S5">
-        <v>0.2391137509240178</v>
+        <v>0.1988432316598141</v>
       </c>
       <c r="T5">
-        <v>0.2172673137419887</v>
+        <v>0.1907829452279469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>0.8046553730764257</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>0.7672984555199999</v>
+        <v>0.010646899744</v>
       </c>
       <c r="R6">
-        <v>6.90568609968</v>
+        <v>0.095822097696</v>
       </c>
       <c r="S6">
-        <v>0.151140719301137</v>
+        <v>0.002892103047609976</v>
       </c>
       <c r="T6">
-        <v>0.2059978020044406</v>
+        <v>0.004162303635280811</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,34 +865,34 @@
         <v>0.8046553730764257</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.013758597536</v>
+        <v>0.002431589472</v>
       </c>
       <c r="R7">
-        <v>0.123827377824</v>
+        <v>0.021884305248</v>
       </c>
       <c r="S7">
-        <v>0.002710137513253066</v>
+        <v>0.0006605122140340063</v>
       </c>
       <c r="T7">
-        <v>0.00369379194065879</v>
+        <v>0.0009506066500269046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N8">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O8">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P8">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q8">
-        <v>0.349266913632</v>
+        <v>0.433038165651</v>
       </c>
       <c r="R8">
-        <v>1.397067654528</v>
+        <v>1.732152662604</v>
       </c>
       <c r="S8">
-        <v>0.06879780895512648</v>
+        <v>0.1176296413720312</v>
       </c>
       <c r="T8">
-        <v>0.04167476799989551</v>
+        <v>0.07524094648075033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1001,10 +1001,10 @@
         <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q9">
         <v>0.277819461192</v>
@@ -1013,10 +1013,10 @@
         <v>1.666916767152</v>
       </c>
       <c r="S9">
-        <v>0.05472425090697802</v>
+        <v>0.07546633571444521</v>
       </c>
       <c r="T9">
-        <v>0.04972441336040047</v>
+        <v>0.07240724098567648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1051,34 +1051,34 @@
         <v>0.1953446269235743</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P10">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q10">
-        <v>0.00163960524</v>
+        <v>0.000534027312</v>
       </c>
       <c r="R10">
-        <v>0.009837631439999998</v>
+        <v>0.003204163871999999</v>
       </c>
       <c r="S10">
-        <v>0.0003229657424184064</v>
+        <v>0.0001450621358027286</v>
       </c>
       <c r="T10">
-        <v>0.0002934582348977153</v>
+        <v>0.0001391819137040012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N11">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O11">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P11">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q11">
-        <v>0.442048788909</v>
+        <v>0.266564939823</v>
       </c>
       <c r="R11">
-        <v>1.768195155636</v>
+        <v>1.066259759292</v>
       </c>
       <c r="S11">
-        <v>0.08707377349876766</v>
+        <v>0.0724091795156166</v>
       </c>
       <c r="T11">
-        <v>0.05274556507756623</v>
+        <v>0.04631600621325157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1175,34 +1175,34 @@
         <v>0.1953446269235743</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N12">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O12">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P12">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q12">
-        <v>0.27941334057</v>
+        <v>0.003877090854</v>
       </c>
       <c r="R12">
-        <v>1.67648004342</v>
+        <v>0.023262545124</v>
       </c>
       <c r="S12">
-        <v>0.05503820967222395</v>
+        <v>0.001053165385635679</v>
       </c>
       <c r="T12">
-        <v>0.05000968753341285</v>
+        <v>0.001010474394358317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1237,34 +1237,34 @@
         <v>0.1953446269235743</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N13">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O13">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P13">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q13">
-        <v>0.005010222125999999</v>
+        <v>0.0008854684020000001</v>
       </c>
       <c r="R13">
-        <v>0.030061332756</v>
+        <v>0.005312810411999999</v>
       </c>
       <c r="S13">
-        <v>0.000986902254962735</v>
+        <v>0.0002405269069458175</v>
       </c>
       <c r="T13">
-        <v>0.0008967347174015122</v>
+        <v>0.0002307769358335437</v>
       </c>
     </row>
   </sheetData>
